--- a/Result1.xlsx
+++ b/Result1.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Foglio1!$C$3:$K$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Foglio1!$I$14:$J$15</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -177,7 +177,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -240,6 +240,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -517,11 +533,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -598,7 +622,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="12">
+    <cellStyle name="Collegamento ipertestuale" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Neutrale" xfId="3" builtinId="28"/>
     <cellStyle name="Non valido" xfId="2" builtinId="27"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -879,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
